--- a/biology/Botanique/Orchis_punaise/Orchis_punaise.xlsx
+++ b/biology/Botanique/Orchis_punaise/Orchis_punaise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anacamptis coriophora
-L’Orchis punaise, ou Orchis à odeur de punaise (Anacamptis coriophora, synonyme ancien: Orchis coriophora), est une espèce de plantes à fleurs de la famille des Orchidaceae. C'est une orchidée terrestre d'Europe, de la Méditerranée et du Moyen-Orient[1].
+L’Orchis punaise, ou Orchis à odeur de punaise (Anacamptis coriophora, synonyme ancien: Orchis coriophora), est une espèce de plantes à fleurs de la famille des Orchidaceae. C'est une orchidée terrestre d'Europe, de la Méditerranée et du Moyen-Orient.
 </t>
         </is>
       </c>
@@ -512,11 +524,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante de 30 cm de hauteur environ a des feuilles allongées, son nom vient de l'odeur caractéristique de ses fleurs dont la couleur varie du pourpre foncé au vert olive.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Orchis_punaise</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Orchis_punaise</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : rose
 Période de floraison : mai-juillet
 Inflorescence : épi simple
@@ -533,31 +582,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Orchis_punaise</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Orchis_punaise</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Autres espèces du genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les dernières classifications tendent à disperser quelques espèces du genre Orchis vers le genre Anacamptis, qui de fait, n'est plus monospécifique. Outre A. coriophora on trouve :
 Anacamptis champagneuxii, Orchis de Champagneux
@@ -572,31 +623,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Orchis_punaise</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Orchis_punaise</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Anacamptis coriophora subsp. coriophora (L.) Bateman, Pridgeon &amp; Chase
 Anacamptis coriophora subsp. fragrans (Pollini) Bateman, Pridgeon &amp; Chase</t>
